--- a/doc/05_ファイル構成一覧表_バスタームーン.xlsx
+++ b/doc/05_ファイル構成一覧表_バスタームーン.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\PlusDojo6月作成ドキュメントテンプレート\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BB2F90-AB89-4717-8973-36CBB5ABCBC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3446DB-2E45-4835-8060-E20AB0CD3583}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14280" yWindow="900" windowWidth="18840" windowHeight="8670" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="8900" yWindow="0" windowWidth="10230" windowHeight="10200" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="119">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -716,6 +716,40 @@
   </si>
   <si>
     <t>Commentsテーブルのデータを保持</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RankSUMDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CommentsDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月で絞り込まない、ポイントを合計したものを表示するためのＤＡＯ</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント関連のDAO</t>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -794,7 +828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,10 +838,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1124,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G169"/>
+  <dimension ref="B2:G171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="E40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1161,7 +1192,7 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B66" si="0">ROW()-2</f>
+        <f t="shared" ref="B3:B68" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1189,10 +1220,10 @@
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="1"/>
@@ -1325,7 +1356,7 @@
       <c r="E11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="1"/>
@@ -1379,10 +1410,10 @@
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" t="s">
         <v>39</v>
       </c>
       <c r="G14" s="1"/>
@@ -1515,7 +1546,7 @@
       <c r="E21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="1"/>
@@ -1588,10 +1619,10 @@
       <c r="D25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" t="s">
         <v>78</v>
       </c>
       <c r="G25" s="1"/>
@@ -1724,7 +1755,7 @@
       <c r="E32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>85</v>
       </c>
       <c r="G32" s="1"/>
@@ -1797,10 +1828,10 @@
       <c r="D36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" t="s">
         <v>67</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" t="s">
         <v>78</v>
       </c>
       <c r="G36" s="1"/>
@@ -1933,7 +1964,7 @@
       <c r="E43" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="3" t="s">
         <v>85</v>
       </c>
       <c r="G43" s="1"/>
@@ -2080,13 +2111,13 @@
         <v>6</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G51" s="1"/>
     </row>
@@ -2099,13 +2130,13 @@
         <v>6</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G52" s="1"/>
     </row>
@@ -2121,10 +2152,10 @@
         <v>100</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -2140,10 +2171,10 @@
         <v>100</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -2159,10 +2190,10 @@
         <v>100</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -2178,10 +2209,10 @@
         <v>100</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G56" s="1"/>
     </row>
@@ -2197,10 +2228,10 @@
         <v>100</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" s="1"/>
     </row>
@@ -2209,10 +2240,18 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2220,10 +2259,18 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2305,7 +2352,7 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="1">
-        <f t="shared" ref="B67:B130" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="C67" s="1"/>
@@ -2316,7 +2363,7 @@
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="C68" s="1"/>
@@ -2327,7 +2374,7 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B69:B132" si="1">ROW()-2</f>
         <v>67</v>
       </c>
       <c r="C69" s="1"/>
@@ -3009,7 +3056,7 @@
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B131" s="1">
-        <f t="shared" ref="B131:B169" si="2">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="C131" s="1"/>
@@ -3020,7 +3067,7 @@
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="C132" s="1"/>
@@ -3031,7 +3078,7 @@
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B133:B171" si="2">ROW()-2</f>
         <v>131</v>
       </c>
       <c r="C133" s="1"/>
@@ -3435,6 +3482,28 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B170" s="1">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B171" s="1">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3444,21 +3513,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3629,10 +3683,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3655,20 +3735,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>